--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3505686.389950975</v>
+        <v>3503142.580443892</v>
       </c>
     </row>
     <row r="7">
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015062</v>
+        <v>136.6253230858996</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>72.36698404190665</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>22.25920201235158</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>180.9919483084156</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>79.63579206135137</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>147.2140319987227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>263.7138800015062</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>66.67731766039434</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>72.36698404190659</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>38.08911925464471</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>167.8296441810573</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>220.4747617066648</v>
       </c>
       <c r="X7" t="n">
-        <v>163.7208498360417</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>158.3991186017904</v>
+        <v>101.4926604386202</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465008</v>
+        <v>65.76608425465054</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>133.5587268592512</v>
+        <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614502</v>
+        <v>92.83909691614508</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115225</v>
+        <v>18.47335059661649</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>50.34571932180403</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>36.87724244866416</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>78.9105100867805</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>29.24923305751666</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695527</v>
       </c>
       <c r="T17" t="n">
         <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>28.75188085812005</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>70.58974991479201</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042239</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2561,13 +2561,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722653</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695543</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.246821098628</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>1.799772605713749</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856566</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890373</v>
+        <v>119.8099036979376</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560551</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408066</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.752258470135</v>
@@ -3092,10 +3092,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560554</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162933</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="36">
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.4286493356922</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560541</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>41.74133133758761</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>161.3373146097486</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695518</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784672</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560547</v>
       </c>
     </row>
     <row r="42">
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>104.8913819999788</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710091</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4031,7 +4031,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893656</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.00642392276842</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="C2" t="n">
-        <v>41.00642392276842</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="G2" t="n">
         <v>21.0971104001205</v>
@@ -4328,22 +4328,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030608</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991321</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4358,22 +4358,22 @@
         <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946892</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="U2" t="n">
-        <v>646.859700735818</v>
+        <v>432.425644570946</v>
       </c>
       <c r="V2" t="n">
-        <v>380.48204416864</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="W2" t="n">
-        <v>114.104387601462</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="X2" t="n">
-        <v>41.00642392276842</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.00642392276842</v>
+        <v>294.4202677165019</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>685.4841493862664</v>
+        <v>218.0341821179663</v>
       </c>
       <c r="C3" t="n">
-        <v>511.0311201051394</v>
+        <v>43.58115283683927</v>
       </c>
       <c r="D3" t="n">
-        <v>362.0967104438881</v>
+        <v>43.58115283683927</v>
       </c>
       <c r="E3" t="n">
-        <v>202.8592554384327</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>202.8592554384327</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
@@ -4410,22 +4410,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>121.6535314649672</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>268.3979551252638</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="T3" t="n">
-        <v>853.6994864063345</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="U3" t="n">
-        <v>853.6994864063345</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="V3" t="n">
-        <v>853.6994864063345</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="W3" t="n">
-        <v>853.6994864063345</v>
+        <v>633.645981088453</v>
       </c>
       <c r="X3" t="n">
-        <v>853.6994864063345</v>
+        <v>425.7944808829202</v>
       </c>
       <c r="Y3" t="n">
-        <v>853.6994864063345</v>
+        <v>218.0341821179663</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>469.821524546946</v>
+        <v>101.5373044014855</v>
       </c>
       <c r="C4" t="n">
-        <v>469.821524546946</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>469.821524546946</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>321.9084309645528</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
         <v>21.0971104001205</v>
@@ -4498,10 +4498,10 @@
         <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4513,25 +4513,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>622.5994491745504</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>622.5994491745504</v>
       </c>
       <c r="V4" t="n">
-        <v>800.1710318001379</v>
+        <v>367.9149609686635</v>
       </c>
       <c r="W4" t="n">
-        <v>800.1710318001379</v>
+        <v>101.5373044014855</v>
       </c>
       <c r="X4" t="n">
-        <v>800.1710318001379</v>
+        <v>101.5373044014855</v>
       </c>
       <c r="Y4" t="n">
-        <v>651.4699893771857</v>
+        <v>101.5373044014855</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>367.7894056603332</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C5" t="n">
-        <v>101.4117490931552</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D5" t="n">
-        <v>101.4117490931552</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>101.4117490931552</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
         <v>34.06092317356495</v>
@@ -4571,16 +4571,16 @@
         <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4598,19 +4598,19 @@
         <v>900.5447187946892</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946892</v>
+        <v>646.859700735818</v>
       </c>
       <c r="V5" t="n">
-        <v>634.1670622275112</v>
+        <v>646.859700735818</v>
       </c>
       <c r="W5" t="n">
-        <v>367.7894056603332</v>
+        <v>646.859700735818</v>
       </c>
       <c r="X5" t="n">
-        <v>367.7894056603332</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="Y5" t="n">
-        <v>367.7894056603332</v>
+        <v>573.7617370571245</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>491.0191073156138</v>
+        <v>59.57096823309496</v>
       </c>
       <c r="C6" t="n">
-        <v>316.5660780344868</v>
+        <v>59.57096823309496</v>
       </c>
       <c r="D6" t="n">
-        <v>167.6316683732355</v>
+        <v>59.57096823309496</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
         <v>21.0971104001205</v>
@@ -4647,19 +4647,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4671,25 +4671,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>691.0742594480922</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>462.9384134849057</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>227.786305253163</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>227.786305253163</v>
       </c>
       <c r="X6" t="n">
-        <v>866.9947431006358</v>
+        <v>227.786305253163</v>
       </c>
       <c r="Y6" t="n">
-        <v>659.2344443356819</v>
+        <v>227.786305253163</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>487.0398802382734</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C7" t="n">
-        <v>318.1036973103666</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D7" t="n">
-        <v>167.9870578980309</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E7" t="n">
-        <v>167.9870578980309</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F7" t="n">
         <v>21.0971104001205</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>464.5914690453322</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X7" t="n">
-        <v>889.4809242120433</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y7" t="n">
-        <v>668.6883450685132</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1057.589174771663</v>
+        <v>981.8557524576147</v>
       </c>
       <c r="C8" t="n">
-        <v>688.6266578312518</v>
+        <v>612.893235517203</v>
       </c>
       <c r="D8" t="n">
-        <v>688.6266578312518</v>
+        <v>612.893235517203</v>
       </c>
       <c r="E8" t="n">
-        <v>688.6266578312518</v>
+        <v>227.1049829189588</v>
       </c>
       <c r="F8" t="n">
-        <v>277.6407530416442</v>
+        <v>220.1594821697553</v>
       </c>
       <c r="G8" t="n">
-        <v>117.641643342866</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="H8" t="n">
-        <v>117.641643342866</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685582</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467177</v>
+        <v>187.3702251467165</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607436</v>
+        <v>442.1757437607409</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045958</v>
+        <v>795.1862829045908</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995231</v>
+        <v>1219.647962995224</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.59168520959</v>
+        <v>1655.59168520958</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940602</v>
+        <v>2053.905718940591</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550205</v>
+        <v>2359.356530550193</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661171</v>
+        <v>2540.564622661158</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342791</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342791</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342791</v>
+        <v>2351.81067643905</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342791</v>
+        <v>2098.22949796462</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.562760342791</v>
+        <v>2098.22949796462</v>
       </c>
       <c r="W8" t="n">
-        <v>2207.794105072677</v>
+        <v>1745.460842694506</v>
       </c>
       <c r="X8" t="n">
-        <v>1834.328346811597</v>
+        <v>1371.995084433426</v>
       </c>
       <c r="Y8" t="n">
-        <v>1444.189014835785</v>
+        <v>981.8557524576147</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010859</v>
+        <v>929.5097208010723</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199589</v>
+        <v>755.0566915199453</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587077</v>
+        <v>606.122281858694</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532522</v>
+        <v>446.8848268532385</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801372</v>
+        <v>300.3502688801235</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763117</v>
       </c>
       <c r="H9" t="n">
-        <v>71.6655983999389</v>
+        <v>69.87120530444797</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685582</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637193</v>
+        <v>113.4887579637184</v>
       </c>
       <c r="K9" t="n">
-        <v>506.4581980381382</v>
+        <v>298.0857543148172</v>
       </c>
       <c r="L9" t="n">
-        <v>800.9941814716203</v>
+        <v>931.8250374996546</v>
       </c>
       <c r="M9" t="n">
-        <v>1164.060649945922</v>
+        <v>1294.891505973955</v>
       </c>
       <c r="N9" t="n">
-        <v>1551.145052418493</v>
+        <v>1842.133061471863</v>
       </c>
       <c r="O9" t="n">
-        <v>1883.031862405883</v>
+        <v>2174.019871459252</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789045</v>
+        <v>2421.055229888876</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342791</v>
+        <v>2536.27262844262</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342791</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251707</v>
+        <v>2424.826280251693</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685355</v>
+        <v>2230.816477685342</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751585</v>
+        <v>2002.726321751571</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519842</v>
+        <v>1767.574213519829</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791641</v>
+        <v>1513.336856791627</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586108</v>
+        <v>1305.485356586094</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821154</v>
+        <v>1097.72505782114</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>715.9213805686181</v>
+        <v>535.0245104929821</v>
       </c>
       <c r="C10" t="n">
-        <v>546.9851976407112</v>
+        <v>366.0883275650752</v>
       </c>
       <c r="D10" t="n">
-        <v>396.8685582283755</v>
+        <v>366.0883275650752</v>
       </c>
       <c r="E10" t="n">
-        <v>248.9554646459824</v>
+        <v>366.0883275650752</v>
       </c>
       <c r="F10" t="n">
-        <v>102.065517148072</v>
+        <v>219.1983800671649</v>
       </c>
       <c r="G10" t="n">
-        <v>102.065517148072</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685582</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685582</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380186</v>
+        <v>76.63468308380124</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676575</v>
+        <v>248.2500215676563</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368932</v>
+        <v>523.3850043368911</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904052</v>
+        <v>823.8653899904023</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101615</v>
+        <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931094</v>
+        <v>1382.582027931089</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616503</v>
+        <v>1581.490387616498</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477366</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477366</v>
+        <v>1533.156055412618</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477366</v>
+        <v>1495.906315565482</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477366</v>
+        <v>1272.925014039888</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477366</v>
+        <v>983.8066405345296</v>
       </c>
       <c r="V10" t="n">
-        <v>1635.769145477366</v>
+        <v>983.8066405345296</v>
       </c>
       <c r="W10" t="n">
-        <v>1346.351975440405</v>
+        <v>983.8066405345296</v>
       </c>
       <c r="X10" t="n">
-        <v>1118.362424542388</v>
+        <v>755.8170896365123</v>
       </c>
       <c r="Y10" t="n">
-        <v>897.5698453988579</v>
+        <v>535.0245104929821</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192673</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703794</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969311</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>551.354624631591</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892232</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2417.418403724183</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2234.563569379087</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2014.962104402028</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1725.886877746226</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1471.202389540339</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1181.785219503378</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>953.7956686053609</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>733.0030894618308</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,64 +5501,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703794</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969311</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5753,7 +5753,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5777,22 +5777,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745235</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171301</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892232</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>414.4022433768874</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>414.4022433768874</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>414.4022433768874</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>247.2061440917674</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,7 +5999,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>639.6425904082686</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551879</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611467</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004717</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6218,58 +6218,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466578</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123007</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852893</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591813</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866616001</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400693</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121622</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121622</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121622</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851786</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000584</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000584</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138394</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703091</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6482,28 +6482,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,19 +6534,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
         <v>680.0291294438171</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6701,7 +6701,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6737,7 +6737,7 @@
         <v>3820.749612123005</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591811</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="35">
@@ -6929,19 +6929,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6956,19 +6956,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6977,7 +6977,7 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,40 +7160,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398594</v>
@@ -7214,7 +7214,7 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>448.1846595309957</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282754</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458823</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797189</v>
+        <v>398.4954786600653</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797189</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111683</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075776</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332384</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,43 +7473,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,31 +7546,31 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>407.9027098310022</v>
+        <v>391.8463960427008</v>
       </c>
       <c r="D43" t="n">
-        <v>407.9027098310022</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310022</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797747</v>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
         <v>1948.813509611464</v>
@@ -7634,64 +7634,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,22 +7719,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>641.8461362382113</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>472.9099533103044</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>823.4946010684511</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>26.13373767211363</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.18793141915893</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127244</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,28 +8532,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>210.4772158821406</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.629595708441</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>161.7749020457969</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348486</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>-3.296918293926865e-12</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>69.70496293143185</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>37.12601365260502</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>69.70496293143188</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715149</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>143.6212754172176</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516910995</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.241159265644</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>125.5054897610402</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>4.18682368252027</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,19 +25786,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>62.35543909864906</v>
+        <v>46.45968844823068</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431582</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>673825.2162894153</v>
+        <v>673825.2162894151</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>673825.2162894153</v>
+        <v>673825.2162894151</v>
       </c>
     </row>
     <row r="8">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>673825.2162894151</v>
+        <v>673825.2162894153</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>673825.216289415</v>
+        <v>673825.2162894151</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26314,46 @@
         <v>759463.6371244619</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244618</v>
+        <v>759463.6371244619</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.604713255</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.604713255</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="I2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="K2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="M2" t="n">
         <v>746610.6047132554</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.03523461802979e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.007658081</v>
+        <v>390680.0076580775</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606915</v>
+        <v>507909.2320606945</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>1.454111184259467e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911403</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
-        <v>1.246984125153741e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101815</v>
+        <v>95270.23779101728</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954685</v>
+        <v>132717.9756954694</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.612356754776556e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>247648.567042389</v>
       </c>
       <c r="D4" t="n">
-        <v>135650.8557716739</v>
+        <v>135650.8557716749</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744297</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8727.256391744322</v>
+      </c>
+      <c r="I4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="F4" t="n">
-        <v>8727.256391744329</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8727.256391744377</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="I4" t="n">
-        <v>8727.256391744295</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8727.256391744049</v>
-      </c>
       <c r="K4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8727.256391744162</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8727.256391744242</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8727.25639174426</v>
+      </c>
+      <c r="O4" t="n">
         <v>8727.256391744202</v>
       </c>
-      <c r="L4" t="n">
-        <v>8727.256391744202</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744297</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.256391744246</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8727.256391744319</v>
-      </c>
       <c r="P4" t="n">
-        <v>8727.256391744206</v>
+        <v>8727.256391744257</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567912</v>
+        <v>92902.86757567886</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-231320.7137133865</v>
+        <v>-231320.7137133864</v>
       </c>
       <c r="C6" t="n">
         <v>448767.2668778066</v>
       </c>
       <c r="D6" t="n">
-        <v>140229.9061190285</v>
+        <v>140229.9061190309</v>
       </c>
       <c r="E6" t="n">
-        <v>128851.5864369122</v>
+        <v>128816.8485114735</v>
       </c>
       <c r="F6" t="n">
-        <v>636760.818497604</v>
+        <v>636726.0805721682</v>
       </c>
       <c r="G6" t="n">
-        <v>636760.8184976039</v>
+        <v>636726.0805721683</v>
       </c>
       <c r="H6" t="n">
-        <v>636760.8184976038</v>
+        <v>636726.0805721683</v>
       </c>
       <c r="I6" t="n">
-        <v>636760.8184976038</v>
+        <v>636726.080572168</v>
       </c>
       <c r="J6" t="n">
-        <v>567761.6640784903</v>
+        <v>567726.9261530545</v>
       </c>
       <c r="K6" t="n">
-        <v>636760.818497604</v>
+        <v>636726.0805721685</v>
       </c>
       <c r="L6" t="n">
-        <v>541490.5807065859</v>
+        <v>541455.8427811509</v>
       </c>
       <c r="M6" t="n">
-        <v>504042.8428021352</v>
+        <v>504008.1048766989</v>
       </c>
       <c r="N6" t="n">
-        <v>636760.818497604</v>
+        <v>636726.0805721683</v>
       </c>
       <c r="O6" t="n">
-        <v>636760.818497604</v>
+        <v>636726.0805721681</v>
       </c>
       <c r="P6" t="n">
-        <v>636760.818497604</v>
+        <v>636726.0805721681</v>
       </c>
     </row>
   </sheetData>
@@ -26695,13 +26695,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.43633726025499e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.43633726025499e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.402662556602803e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627846</v>
+        <v>933.7024595627818</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,10 +26793,10 @@
         <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856978</v>
+        <v>640.1406900856944</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26811,22 +26811,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099649</v>
@@ -26917,28 +26917,28 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.43633726025499e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>-7.43633726025499e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.458701140173446e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.558730156442176e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567694e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933062</v>
+        <v>319.6474457933034</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788894</v>
+        <v>434.273040778892</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27015,13 +27015,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841916</v>
+        <v>376.4268100841882</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139508</v>
+        <v>532.567598013954</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,25 +27033,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841916</v>
+        <v>376.4268100841884</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139506</v>
+        <v>532.567598013954</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27154,10 +27154,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.43633726025499e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.558730156442176e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841916</v>
+        <v>376.4268100841882</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139508</v>
+        <v>532.567598013954</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862871</v>
+        <v>191.1269353842353</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>297.3641166365624</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.3858784430494</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,10 +27506,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>13.84903927646116</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>87.61102903727647</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>71.37062135337209</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>340.1987280813171</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27670,16 +27670,16 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862871</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>297.3641166365625</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,16 +27695,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>119.5559612007562</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>37.94334102242013</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27831,13 +27831,13 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>66.04823662992618</v>
       </c>
       <c r="X7" t="n">
-        <v>61.9888055529955</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>253.150041186459</v>
+        <v>310.0564993496292</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.776449164522461</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164535965</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>96.91160063723548</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>157.7966078017204</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.43633726025499e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.43633726025499e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.43633726025499e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.43633726025499e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.43633726025499e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.43633726025499e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.43633726025499e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.43633726025499e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.43633726025499e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7.43633726025499e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.43633726025499e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.43633726025499e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.43633726025499e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.43633726025499e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28573,13 +28573,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.43633726025499e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.43633726025499e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>7.43633726025499e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,13 +28612,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.43633726025499e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.43633726025499e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>7.43633726025499e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29281,13 +29281,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-3.330162113092115e-12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.458701140173446e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.458701140173446e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-1.458701140173446e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.458701140173446e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.458701140173446e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.458701140173446e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.458701140173446e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.458701140173446e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.458701140173446e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.458701140173446e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.458701140173446e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>-1.458701140173446e-13</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-1.458701140173446e-13</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-1.458701140173446e-13</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>-1.458701140173446e-13</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.458701140173446e-13</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>-1.458701140173446e-13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-1.458701140173446e-13</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>-1.458701140173446e-13</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-1.458701140173446e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>-1.458701140173446e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-1.458701140173446e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>-1.458701140173446e-13</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>-1.458701140173446e-13</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>-1.458701140173446e-13</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>-1.458701140173446e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>-1.458701140173446e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-8.143680130197678e-15</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-1.478997154632013e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="T32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="U32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="Y32" t="n">
-        <v>-1.350276212680659e-12</v>
+        <v>-1.832332906093958e-12</v>
       </c>
     </row>
     <row r="33">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-5.86741080007012e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-5.30466095334812e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>-2.005782541529503e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>9.402662556602803e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>9.402662556602803e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>9.402662556602803e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>9.402662556602803e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>9.402662556602803e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.402662556602803e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>9.402662556602803e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>9.402662556602803e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.878642528897124e-12</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-1.092834328777952e-12</v>
       </c>
     </row>
     <row r="42">
@@ -30694,22 +30694,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-6.184639007818955e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.606762998513769e-12</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.184639007818955e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30748,10 +30748,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -30760,7 +30760,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885563</v>
+        <v>3.753577726885552</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546678</v>
+        <v>38.44132789546667</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157558</v>
+        <v>144.7098053157554</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972539</v>
+        <v>318.5802175972529</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763199</v>
+        <v>477.4691627763184</v>
       </c>
       <c r="L8" t="n">
-        <v>592.342717135494</v>
+        <v>592.3427171354923</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359952</v>
+        <v>659.0954050359932</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525089</v>
+        <v>669.7602577525068</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307905</v>
+        <v>632.4356192307886</v>
       </c>
       <c r="P8" t="n">
-        <v>539.769169098303</v>
+        <v>539.7691690983014</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542137</v>
+        <v>405.3441667542124</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864755</v>
+        <v>235.7856768864748</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140487</v>
+        <v>85.5346524514046</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944156</v>
+        <v>16.43128649944151</v>
       </c>
       <c r="U8" t="n">
-        <v>0.300286218150845</v>
+        <v>0.3002862181508441</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436933</v>
+        <v>2.008341139436927</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035143</v>
+        <v>19.39634732035137</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026283</v>
+        <v>69.14683309026262</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079429</v>
+        <v>189.7441951079423</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502174</v>
+        <v>324.3030514502164</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571288</v>
+        <v>436.0654741571275</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617175</v>
+        <v>508.867840461716</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152223</v>
+        <v>522.3360580152207</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519092</v>
+        <v>477.8354464519078</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947596</v>
+        <v>383.5050724947585</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463706</v>
+        <v>256.3629847463699</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204791</v>
+        <v>124.6933209204787</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366406</v>
+        <v>37.30405581366394</v>
       </c>
       <c r="T9" t="n">
-        <v>8.09502415413395</v>
+        <v>8.095024154133926</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419035</v>
+        <v>0.1321277065419031</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752562</v>
+        <v>1.683725746752557</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840006</v>
+        <v>14.96985254840002</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415889</v>
+        <v>50.63422518415873</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954061</v>
+        <v>119.0394102954058</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772522</v>
+        <v>195.6183185772516</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490128</v>
+        <v>250.324098749012</v>
       </c>
       <c r="M10" t="n">
-        <v>263.931664102313</v>
+        <v>263.9316641023121</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462355</v>
+        <v>257.6559590462347</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046259</v>
+        <v>237.9869810046252</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708735</v>
+        <v>203.6389757708728</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939805</v>
+        <v>140.9890713939801</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307428</v>
+        <v>75.70643221307405</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658783</v>
+        <v>29.34274778658774</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942764</v>
+        <v>7.194100917942742</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650349</v>
+        <v>0.09183958618650322</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319848</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338212</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32312,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338212</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832332</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>669.466988500007</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32783,22 +32783,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>528.7932908500036</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319848</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>396.9700886943664</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
@@ -33500,28 +33500,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>383.9182138639285</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>344.6306853939237</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422586</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>345.1232217852615</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34442,22 +34442,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622658</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>101.5721424897441</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="N3" t="n">
         <v>212.1757243460657</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877689</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659563</v>
@@ -35030,7 +35030,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250135</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649641</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705676</v>
+        <v>137.5343130705666</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313393</v>
+        <v>257.3793117313379</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655068</v>
+        <v>356.5763021655051</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087225</v>
+        <v>428.7491718087205</v>
       </c>
       <c r="N8" t="n">
-        <v>440.347194155918</v>
+        <v>440.3471941559159</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091038</v>
+        <v>402.3374078091018</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430335</v>
+        <v>308.5361733430319</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797642</v>
+        <v>183.038476879763</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234335</v>
+        <v>20.20013907234264</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127619</v>
+        <v>62.90656844127562</v>
       </c>
       <c r="K9" t="n">
-        <v>396.9388283579989</v>
+        <v>186.4616124758574</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772547</v>
+        <v>640.1406900856944</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396992</v>
+        <v>366.7338065396977</v>
       </c>
       <c r="N9" t="n">
-        <v>390.994345931889</v>
+        <v>552.7692479776844</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074648</v>
+        <v>335.2392020074633</v>
       </c>
       <c r="P9" t="n">
-        <v>567.9934337203665</v>
+        <v>249.5306650804282</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603491</v>
+        <v>116.3812106603484</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783558</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873337</v>
+        <v>25.68023017873301</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513693</v>
+        <v>173.3488267513687</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093289</v>
+        <v>277.9141240093281</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641536</v>
+        <v>303.5155410641527</v>
       </c>
       <c r="N10" t="n">
-        <v>301.788131425464</v>
+        <v>301.7881314254632</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186655</v>
+        <v>262.5721089186649</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357669</v>
+        <v>200.9175350357663</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8270281422861</v>
+        <v>54.82702814228567</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875403</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394704</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394704</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998999</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>526.8707440555626</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>386.6592569279853</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875403</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>254.8360547723481</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>249.9438064495983</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>206.7892464195648</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396387</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.4543240367771</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.587454168382</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402476</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
